--- a/Rider18Calculator.xlsx
+++ b/Rider18Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u09499\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shomnath/Documents/Test_Jan2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0B44AA2-0BFD-4480-96A0-40E8DB6641FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344DE511-8E12-E248-BD7D-A5D3269B34E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{87241BBD-7CBE-4D6F-9843-69AD1D55878E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{87241BBD-7CBE-4D6F-9843-69AD1D55878E}"/>
   </bookViews>
   <sheets>
     <sheet name="Residential vs. Rider 18" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1112,37 +1110,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1173,6 +1144,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="7" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1657,107 +1655,107 @@
   <dimension ref="A2:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="44.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="44.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="44.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="44.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="23" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="84" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="85" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+    </row>
+    <row r="9" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="G10" s="85" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="G10" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
-      <c r="G11" s="88" t="s">
+      <c r="G11" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90">
+      <c r="H11" s="80"/>
+      <c r="I11" s="81">
         <f>J43</f>
-        <v>127.25999999999999</v>
-      </c>
-      <c r="J11" s="91"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1718.9099999999999</v>
+      </c>
+      <c r="J11" s="82"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1768,33 +1766,33 @@
         <v>7</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="82">
+      <c r="H12" s="72"/>
+      <c r="I12" s="73">
         <f>J48</f>
         <v>0</v>
       </c>
-      <c r="J12" s="83"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="74"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9">
-        <v>900</v>
+        <v>9100</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
       <c r="I13" s="12"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -1805,17 +1803,17 @@
         <v>10</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80">
+      <c r="H14" s="72"/>
+      <c r="I14" s="90">
         <f>E43</f>
-        <v>232.35999999999999</v>
-      </c>
-      <c r="J14" s="81"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1824.0099999999998</v>
+      </c>
+      <c r="J14" s="91"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1826,49 +1824,49 @@
         <v>10</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
       <c r="I15" s="12"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="14"/>
       <c r="D16" s="12"/>
       <c r="E16" s="11"/>
-      <c r="G16" s="78" t="s">
+      <c r="G16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="80">
+      <c r="H16" s="72"/>
+      <c r="I16" s="90">
         <f>I14-I11</f>
-        <v>105.1</v>
-      </c>
-      <c r="J16" s="81"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>105.09999999999991</v>
+      </c>
+      <c r="J16" s="91"/>
+    </row>
+    <row r="17" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="16">
         <f>C13+C15-C14</f>
-        <v>1200</v>
+        <v>9400</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="18"/>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73">
+      <c r="H17" s="84"/>
+      <c r="I17" s="85">
         <f>I16+I12</f>
-        <v>105.1</v>
-      </c>
-      <c r="J17" s="74"/>
-    </row>
-    <row r="18" spans="2:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>105.09999999999991</v>
+      </c>
+      <c r="J17" s="86"/>
+    </row>
+    <row r="18" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="str">
         <f>IF(C15&lt;C14,"ERROR - GENERATION CANNOT BE LESS THAN OUTFLOW","")</f>
         <v/>
@@ -1876,21 +1874,21 @@
       <c r="C18" s="20"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
+    <row r="19" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="G19" s="75" t="s">
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="G19" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="77"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="89"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="21"/>
       <c r="C20" s="22" t="s">
         <v>19</v>
@@ -1912,7 +1910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -1924,7 +1922,7 @@
       <c r="H21" s="1"/>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
@@ -1936,7 +1934,7 @@
       <c r="H22" s="1"/>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="s">
         <v>24</v>
       </c>
@@ -1968,7 +1966,7 @@
         <v>22.47</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
         <v>25</v>
       </c>
@@ -1978,11 +1976,11 @@
       </c>
       <c r="D24" s="3">
         <f>IF($C17&gt;$C12*17,$C17-($C12*17),0)</f>
-        <v>690</v>
+        <v>8890</v>
       </c>
       <c r="E24" s="28">
         <f t="shared" ref="E24:E26" si="0">ROUND(C24*D24,2)</f>
-        <v>43.79</v>
+        <v>564.25</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>25</v>
@@ -1993,14 +1991,14 @@
       </c>
       <c r="I24" s="3">
         <f>IF($C13&gt;$C12*17,$C13-($C12*17),0)</f>
-        <v>390</v>
+        <v>8590</v>
       </c>
       <c r="J24" s="29">
         <f t="shared" ref="J24:J37" si="1">ROUND(H24*I24,2)</f>
-        <v>24.75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+        <v>545.21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
         <v>26</v>
       </c>
@@ -2010,11 +2008,11 @@
       </c>
       <c r="D25" s="3">
         <f>C17</f>
-        <v>1200</v>
+        <v>9400</v>
       </c>
       <c r="E25" s="28">
         <f t="shared" si="0"/>
-        <v>47.34</v>
+        <v>370.83</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>26</v>
@@ -2025,14 +2023,14 @@
       </c>
       <c r="I25" s="3">
         <f>$C13</f>
-        <v>900</v>
+        <v>9100</v>
       </c>
       <c r="J25" s="29">
         <f t="shared" si="1"/>
-        <v>35.51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="21" t="s">
         <v>27</v>
       </c>
@@ -2042,11 +2040,11 @@
       </c>
       <c r="D26" s="3">
         <f>C17</f>
-        <v>1200</v>
+        <v>9400</v>
       </c>
       <c r="E26" s="28">
         <f t="shared" si="0"/>
-        <v>7.98</v>
+        <v>62.51</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>27</v>
@@ -2057,21 +2055,21 @@
       </c>
       <c r="I26" s="3">
         <f>$C13</f>
-        <v>900</v>
+        <v>9100</v>
       </c>
       <c r="J26" s="29">
         <f t="shared" si="1"/>
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+        <v>60.52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="21" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="27"/>
       <c r="E27" s="28">
         <f>E58</f>
-        <v>0.25</v>
+        <v>1.97</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>121</v>
@@ -2079,10 +2077,10 @@
       <c r="H27" s="27"/>
       <c r="J27" s="29">
         <f>J58</f>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="21"/>
       <c r="C28" s="27"/>
       <c r="E28" s="28"/>
@@ -2092,7 +2090,7 @@
       <c r="H28" s="27"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="21"/>
       <c r="C29" s="27"/>
       <c r="E29" s="28"/>
@@ -2112,7 +2110,7 @@
         <v>-45.08</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="21"/>
       <c r="C30" s="27"/>
       <c r="E30" s="28"/>
@@ -2132,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="21"/>
       <c r="C31" s="27"/>
       <c r="E31" s="30"/>
@@ -2145,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="32" t="s">
         <v>30</v>
       </c>
@@ -2153,7 +2151,7 @@
       <c r="D32" s="34"/>
       <c r="E32" s="35">
         <f>SUM(E23:E31)</f>
-        <v>121.83</v>
+        <v>1022.03</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="32" t="s">
@@ -2163,10 +2161,10 @@
       <c r="I32" s="34"/>
       <c r="J32" s="37">
         <f>SUM(J23:J31)</f>
-        <v>43.829999999999984</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+        <v>944.03</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="21"/>
       <c r="C33" s="27"/>
       <c r="E33" s="28"/>
@@ -2174,7 +2172,7 @@
       <c r="H33" s="27"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>31</v>
       </c>
@@ -2186,7 +2184,7 @@
       <c r="H34" s="27"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>32</v>
       </c>
@@ -2216,7 +2214,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="21" t="s">
         <v>33</v>
       </c>
@@ -2226,11 +2224,11 @@
       </c>
       <c r="D36" s="3">
         <f>C17</f>
-        <v>1200</v>
+        <v>9400</v>
       </c>
       <c r="E36" s="28">
         <f t="shared" si="2"/>
-        <v>82.55</v>
+        <v>646.63</v>
       </c>
       <c r="G36" s="21" t="s">
         <v>33</v>
@@ -2241,14 +2239,14 @@
       </c>
       <c r="I36" s="3">
         <f>$C13</f>
-        <v>900</v>
+        <v>9100</v>
       </c>
       <c r="J36" s="29">
         <f t="shared" si="1"/>
-        <v>61.91</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+        <v>625.99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
         <v>36</v>
       </c>
@@ -2280,14 +2278,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
         <v>122</v>
       </c>
       <c r="C38" s="38"/>
       <c r="E38" s="28">
         <f>E66</f>
-        <v>9.68</v>
+        <v>75.83</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>122</v>
@@ -2295,10 +2293,10 @@
       <c r="H38" s="38"/>
       <c r="J38" s="29">
         <f>J65</f>
-        <v>7.26</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+        <v>73.41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="21"/>
       <c r="C39" s="3"/>
       <c r="E39" s="28"/>
@@ -2306,7 +2304,7 @@
       <c r="H39" s="1"/>
       <c r="J39" s="29"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="32" t="s">
         <v>37</v>
       </c>
@@ -2314,7 +2312,7 @@
       <c r="D40" s="34"/>
       <c r="E40" s="35">
         <f>SUM(E35:E39)</f>
-        <v>101.63</v>
+        <v>731.86</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="32" t="s">
@@ -2324,10 +2322,10 @@
       <c r="I40" s="34"/>
       <c r="J40" s="37">
         <f>SUM(J35:J39)</f>
-        <v>78.570000000000007</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+        <v>708.8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="32" t="s">
         <v>38</v>
       </c>
@@ -2335,7 +2333,7 @@
       <c r="D41" s="34"/>
       <c r="E41" s="35">
         <f>E32+E40</f>
-        <v>223.45999999999998</v>
+        <v>1753.8899999999999</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="32" t="s">
@@ -2345,17 +2343,17 @@
       <c r="I41" s="34"/>
       <c r="J41" s="37">
         <f>J32+J40</f>
-        <v>122.39999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1652.83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="3"/>
       <c r="E42" s="30">
         <f>ROUND(0.04*(E41-E37),2)</f>
-        <v>8.9</v>
+        <v>70.12</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>39</v>
@@ -2363,10 +2361,10 @@
       <c r="H42" s="1"/>
       <c r="J42" s="31">
         <f>ROUND(0.04*(J41-J37),2)</f>
-        <v>4.8600000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+        <v>66.08</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="32" t="s">
         <v>40</v>
       </c>
@@ -2374,7 +2372,7 @@
       <c r="D43" s="34"/>
       <c r="E43" s="35">
         <f>E41+E42</f>
-        <v>232.35999999999999</v>
+        <v>1824.0099999999998</v>
       </c>
       <c r="F43" s="36"/>
       <c r="G43" s="32" t="s">
@@ -2384,10 +2382,10 @@
       <c r="I43" s="34"/>
       <c r="J43" s="37">
         <f>J41+J42</f>
-        <v>127.25999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1718.9099999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="21"/>
       <c r="C44" s="3"/>
       <c r="E44" s="25"/>
@@ -2395,7 +2393,7 @@
       <c r="H44" s="1"/>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="21"/>
       <c r="C45" s="3"/>
       <c r="E45" s="25"/>
@@ -2405,7 +2403,7 @@
       <c r="H45" s="1"/>
       <c r="J45" s="26"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="21"/>
       <c r="C46" s="3"/>
       <c r="E46" s="25"/>
@@ -2417,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="21"/>
       <c r="C47" s="3"/>
       <c r="E47" s="25"/>
@@ -2430,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="41"/>
       <c r="C48" s="42"/>
       <c r="D48" s="42"/>
@@ -2445,8 +2443,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="68" t="s">
         <v>121</v>
       </c>
@@ -2472,7 +2470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>123</v>
       </c>
@@ -2482,11 +2480,11 @@
       </c>
       <c r="D56" s="3">
         <f>C17</f>
-        <v>1200</v>
+        <v>9400</v>
       </c>
       <c r="E56" s="66">
         <f t="shared" ref="E56:E63" si="3">ROUND(C56*D56,2)</f>
-        <v>0.25</v>
+        <v>1.97</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>123</v>
@@ -2497,14 +2495,14 @@
       </c>
       <c r="I56" s="3">
         <f>C13</f>
-        <v>900</v>
+        <v>9100</v>
       </c>
       <c r="J56" s="66">
         <f t="shared" ref="J56:J62" si="4">ROUND(H56*I56,2)</f>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>120</v>
       </c>
@@ -2514,7 +2512,7 @@
       </c>
       <c r="D57" s="3">
         <f>C17</f>
-        <v>1200</v>
+        <v>9400</v>
       </c>
       <c r="E57" s="70">
         <f t="shared" si="3"/>
@@ -2529,21 +2527,21 @@
       </c>
       <c r="I57" s="3">
         <f>C13</f>
-        <v>900</v>
+        <v>9100</v>
       </c>
       <c r="J57" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C58" s="67"/>
       <c r="E58" s="66">
         <f>SUM(E56:E57)</f>
-        <v>0.25</v>
+        <v>1.97</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>38</v>
@@ -2551,22 +2549,22 @@
       <c r="H58" s="1"/>
       <c r="J58" s="66">
         <f>SUM(J56:J57)</f>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C59" s="67"/>
       <c r="E59" s="66"/>
       <c r="H59" s="1"/>
       <c r="J59" s="66"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C60" s="67"/>
       <c r="E60" s="66"/>
       <c r="H60" s="1"/>
       <c r="J60" s="66"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="68" t="s">
         <v>122</v>
       </c>
@@ -2578,7 +2576,7 @@
       <c r="H61" s="1"/>
       <c r="J61" s="66"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
@@ -2588,11 +2586,11 @@
       </c>
       <c r="D62" s="3">
         <f>C17</f>
-        <v>1200</v>
+        <v>9400</v>
       </c>
       <c r="E62" s="66">
         <f t="shared" si="3"/>
-        <v>2.15</v>
+        <v>16.84</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>123</v>
@@ -2603,14 +2601,14 @@
       </c>
       <c r="I62" s="3">
         <f>C13</f>
-        <v>900</v>
+        <v>9100</v>
       </c>
       <c r="J62" s="66">
         <f t="shared" si="4"/>
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+        <v>16.309999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>120</v>
       </c>
@@ -2620,7 +2618,7 @@
       </c>
       <c r="D63" s="3">
         <f>C17</f>
-        <v>1200</v>
+        <v>9400</v>
       </c>
       <c r="E63" s="66">
         <f t="shared" si="3"/>
@@ -2635,14 +2633,14 @@
       </c>
       <c r="I63" s="3">
         <f>C13</f>
-        <v>900</v>
+        <v>9100</v>
       </c>
       <c r="J63" s="66">
         <f>ROUND(H63*I63,2)</f>
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>34</v>
       </c>
@@ -2652,11 +2650,11 @@
       </c>
       <c r="D64" s="3">
         <f>C17</f>
-        <v>1200</v>
+        <v>9400</v>
       </c>
       <c r="E64" s="66">
         <f>ROUND(C64*D64,2)</f>
-        <v>1.02</v>
+        <v>8.01</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>35</v>
@@ -2667,14 +2665,14 @@
       </c>
       <c r="I64" s="3">
         <f>C13</f>
-        <v>900</v>
+        <v>9100</v>
       </c>
       <c r="J64" s="70">
         <f>ROUND(H64*I64,2)</f>
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+        <v>49.35</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>35</v>
       </c>
@@ -2684,11 +2682,11 @@
       </c>
       <c r="D65" s="3">
         <f>C17</f>
-        <v>1200</v>
+        <v>9400</v>
       </c>
       <c r="E65" s="70">
         <f>ROUND(C65*D65,2)</f>
-        <v>6.51</v>
+        <v>50.98</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>38</v>
@@ -2696,27 +2694,20 @@
       <c r="H65" s="1"/>
       <c r="J65" s="66">
         <f>SUM(J62:J64)</f>
-        <v>7.26</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+        <v>73.41</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="66">
         <f>SUM(E62:E65)</f>
-        <v>9.68</v>
+        <v>75.83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B4:G8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="B19:E19"/>
@@ -2727,6 +2718,13 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2741,104 +2739,104 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="44.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="44.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="44.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="44.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="23" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="84" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="85" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+    </row>
+    <row r="9" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="G10" s="85" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="G10" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
-      <c r="G11" s="88" t="s">
+      <c r="G11" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90">
+      <c r="H11" s="80"/>
+      <c r="I11" s="81">
         <f>J43</f>
         <v>9.74</v>
       </c>
-      <c r="J11" s="91"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="82"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
@@ -2847,17 +2845,17 @@
         <v>7</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="82">
+      <c r="H12" s="72"/>
+      <c r="I12" s="73">
         <f>J48</f>
         <v>0</v>
       </c>
-      <c r="J12" s="83"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="74"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
@@ -2866,12 +2864,12 @@
         <v>10</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
       <c r="I13" s="12"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -2880,17 +2878,17 @@
         <v>10</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80">
+      <c r="H14" s="72"/>
+      <c r="I14" s="90">
         <f>E43</f>
         <v>9.74</v>
       </c>
-      <c r="J14" s="81"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="91"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
@@ -2899,27 +2897,27 @@
         <v>10</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
       <c r="I15" s="12"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="14"/>
       <c r="D16" s="12"/>
       <c r="E16" s="11"/>
-      <c r="G16" s="78" t="s">
+      <c r="G16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="80">
+      <c r="H16" s="72"/>
+      <c r="I16" s="90">
         <f>I14-I11</f>
         <v>0</v>
       </c>
-      <c r="J16" s="81"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="91"/>
+    </row>
+    <row r="17" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>15</v>
       </c>
@@ -2931,17 +2929,17 @@
         <v>10</v>
       </c>
       <c r="E17" s="18"/>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73">
+      <c r="H17" s="84"/>
+      <c r="I17" s="85">
         <f>I16+I12</f>
         <v>0</v>
       </c>
-      <c r="J17" s="74"/>
-    </row>
-    <row r="18" spans="2:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="86"/>
+    </row>
+    <row r="18" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="str">
         <f>IF(C15&lt;C14,"ERROR - GENERATION CANNOT BE LESS THAN OUTFLOW","")</f>
         <v/>
@@ -2949,21 +2947,21 @@
       <c r="C18" s="20"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
+    <row r="19" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="G19" s="75" t="s">
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="G19" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="77"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="89"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="21"/>
       <c r="C20" s="22" t="s">
         <v>19</v>
@@ -2985,7 +2983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -2997,7 +2995,7 @@
       <c r="H21" s="1"/>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
@@ -3009,7 +3007,7 @@
       <c r="H22" s="1"/>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="s">
         <v>24</v>
       </c>
@@ -3041,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
         <v>25</v>
       </c>
@@ -3073,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
         <v>26</v>
       </c>
@@ -3105,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="21" t="s">
         <v>27</v>
       </c>
@@ -3137,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="21" t="s">
         <v>121</v>
       </c>
@@ -3155,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="21"/>
       <c r="C28" s="27"/>
       <c r="E28" s="28"/>
@@ -3165,7 +3163,7 @@
       <c r="H28" s="27"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="21"/>
       <c r="C29" s="27"/>
       <c r="E29" s="28"/>
@@ -3185,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="21"/>
       <c r="C30" s="27"/>
       <c r="E30" s="28"/>
@@ -3205,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="21"/>
       <c r="C31" s="27"/>
       <c r="E31" s="30"/>
@@ -3218,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="32" t="s">
         <v>30</v>
       </c>
@@ -3239,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="21"/>
       <c r="C33" s="27"/>
       <c r="E33" s="28"/>
@@ -3247,7 +3245,7 @@
       <c r="H33" s="27"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>31</v>
       </c>
@@ -3259,7 +3257,7 @@
       <c r="H34" s="27"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>32</v>
       </c>
@@ -3289,7 +3287,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="21" t="s">
         <v>33</v>
       </c>
@@ -3321,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
         <v>36</v>
       </c>
@@ -3353,7 +3351,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
         <v>122</v>
       </c>
@@ -3371,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="21"/>
       <c r="C39" s="3"/>
       <c r="E39" s="28"/>
@@ -3379,7 +3377,7 @@
       <c r="H39" s="1"/>
       <c r="J39" s="29"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="32" t="s">
         <v>37</v>
       </c>
@@ -3400,7 +3398,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="32" t="s">
         <v>38</v>
       </c>
@@ -3421,7 +3419,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>39</v>
       </c>
@@ -3439,7 +3437,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="32" t="s">
         <v>40</v>
       </c>
@@ -3460,7 +3458,7 @@
         <v>9.74</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="21"/>
       <c r="C44" s="3"/>
       <c r="E44" s="25"/>
@@ -3468,7 +3466,7 @@
       <c r="H44" s="1"/>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="21"/>
       <c r="C45" s="3"/>
       <c r="E45" s="25"/>
@@ -3478,7 +3476,7 @@
       <c r="H45" s="1"/>
       <c r="J45" s="26"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="21"/>
       <c r="C46" s="3"/>
       <c r="E46" s="25"/>
@@ -3490,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="21"/>
       <c r="C47" s="3"/>
       <c r="E47" s="25"/>
@@ -3503,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="41"/>
       <c r="C48" s="42"/>
       <c r="D48" s="42"/>
@@ -3518,8 +3516,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="68" t="s">
         <v>121</v>
       </c>
@@ -3545,7 +3543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>123</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>120</v>
       </c>
@@ -3609,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>38</v>
       </c>
@@ -3627,19 +3625,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C59" s="67"/>
       <c r="E59" s="66"/>
       <c r="H59" s="1"/>
       <c r="J59" s="66"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C60" s="67"/>
       <c r="E60" s="66"/>
       <c r="H60" s="1"/>
       <c r="J60" s="66"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="68" t="s">
         <v>122</v>
       </c>
@@ -3651,7 +3649,7 @@
       <c r="H61" s="1"/>
       <c r="J61" s="66"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
@@ -3683,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>120</v>
       </c>
@@ -3715,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>34</v>
       </c>
@@ -3747,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>35</v>
       </c>
@@ -3772,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>38</v>
       </c>
@@ -3783,13 +3781,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B4:G8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="B19:E19"/>
@@ -3800,6 +3791,13 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3814,27 +3812,27 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="45" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="23" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="92" t="s">
         <v>45</v>
       </c>
@@ -3844,63 +3842,63 @@
       <c r="F3" s="92"/>
       <c r="G3" s="92"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="84" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-    </row>
-    <row r="8" spans="2:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="85" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+    </row>
+    <row r="8" spans="2:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+    </row>
+    <row r="9" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="G10" s="85" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="G10" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3908,13 +3906,13 @@
       <c r="G11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="81">
         <f>J46</f>
         <v>78.089999999999989</v>
       </c>
-      <c r="I11" s="91"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
@@ -3928,13 +3926,13 @@
       <c r="G12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="73">
         <f>J51</f>
         <v>0</v>
       </c>
-      <c r="I12" s="83"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="74"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
@@ -3949,7 +3947,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -3963,13 +3961,13 @@
       <c r="G14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="90">
         <f>E46</f>
         <v>31.490000000000002</v>
       </c>
-      <c r="I14" s="81"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="46"/>
       <c r="D15" s="10"/>
@@ -3977,13 +3975,13 @@
       <c r="G15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="80">
+      <c r="H15" s="90">
         <f>E51</f>
         <v>0</v>
       </c>
-      <c r="I15" s="81"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>50</v>
       </c>
@@ -3999,7 +3997,7 @@
       <c r="H16" s="47"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="93" t="s">
         <v>51</v>
       </c>
@@ -4009,13 +4007,13 @@
       <c r="G17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="80">
+      <c r="H17" s="90">
         <f>J46-E46</f>
         <v>46.599999999999987</v>
       </c>
-      <c r="I17" s="81"/>
-    </row>
-    <row r="18" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="91"/>
+    </row>
+    <row r="18" spans="2:10" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="94"/>
       <c r="C18" s="94"/>
       <c r="D18" s="94"/>
@@ -4023,39 +4021,39 @@
       <c r="G18" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="85">
         <f>(J46-J51)-(E46-E51)</f>
         <v>46.599999999999987</v>
       </c>
-      <c r="I18" s="74"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="86"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
       <c r="H19" s="50"/>
     </row>
-    <row r="20" spans="2:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="75" t="s">
+    <row r="21" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="G21" s="75" t="s">
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="G21" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="77"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="21"/>
       <c r="C22" s="22" t="s">
         <v>19</v>
@@ -4077,7 +4075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="24" t="s">
         <v>22</v>
       </c>
@@ -4089,7 +4087,7 @@
       <c r="H23" s="1"/>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
         <v>23</v>
       </c>
@@ -4101,7 +4099,7 @@
       <c r="H24" s="1"/>
       <c r="J24" s="26"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
         <v>55</v>
       </c>
@@ -4133,7 +4131,7 @@
         <v>22.47</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="21" t="s">
         <v>25</v>
       </c>
@@ -4165,7 +4163,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="21" t="s">
         <v>26</v>
       </c>
@@ -4197,7 +4195,7 @@
         <v>26.63</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>27</v>
       </c>
@@ -4229,7 +4227,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
         <v>121</v>
       </c>
@@ -4247,7 +4245,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
         <v>56</v>
       </c>
@@ -4272,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>57</v>
       </c>
@@ -4304,7 +4302,7 @@
         <v>-45.98</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>58</v>
       </c>
@@ -4336,7 +4334,7 @@
         <v>-4.38</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="21" t="s">
         <v>59</v>
       </c>
@@ -4361,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="32" t="s">
         <v>30</v>
       </c>
@@ -4381,7 +4379,7 @@
         <v>13.839999999999993</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="21"/>
       <c r="C35" s="27"/>
       <c r="E35" s="28"/>
@@ -4390,7 +4388,7 @@
       <c r="H35" s="27"/>
       <c r="J35" s="29"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="24" t="s">
         <v>31</v>
       </c>
@@ -4402,7 +4400,7 @@
       <c r="H36" s="27"/>
       <c r="J36" s="29"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
         <v>32</v>
       </c>
@@ -4432,7 +4430,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
         <v>33</v>
       </c>
@@ -4464,7 +4462,7 @@
         <v>46.43</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="21" t="s">
         <v>36</v>
       </c>
@@ -4496,7 +4494,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="21" t="s">
         <v>122</v>
       </c>
@@ -4514,7 +4512,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="21" t="s">
         <v>60</v>
       </c>
@@ -4534,7 +4532,7 @@
       <c r="H41" s="1"/>
       <c r="J41" s="29"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="32" t="s">
         <v>37</v>
       </c>
@@ -4554,7 +4552,7 @@
         <v>61.28</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="32"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -4565,7 +4563,7 @@
       <c r="I43" s="34"/>
       <c r="J43" s="37"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="32" t="s">
         <v>38</v>
       </c>
@@ -4586,7 +4584,7 @@
         <v>75.11999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="21" t="s">
         <v>39</v>
       </c>
@@ -4605,7 +4603,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="32" t="s">
         <v>40</v>
       </c>
@@ -4625,7 +4623,7 @@
         <v>78.089999999999989</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="21"/>
       <c r="C47" s="3"/>
       <c r="E47" s="25"/>
@@ -4634,7 +4632,7 @@
       <c r="H47" s="1"/>
       <c r="J47" s="26"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="24" t="s">
         <v>41</v>
       </c>
@@ -4648,7 +4646,7 @@
       <c r="H48" s="1"/>
       <c r="J48" s="26"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>42</v>
       </c>
@@ -4671,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="21" t="s">
         <v>43</v>
       </c>
@@ -4690,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="41" t="s">
         <v>44</v>
       </c>
@@ -4716,8 +4714,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>62</v>
       </c>
@@ -4726,7 +4724,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>63</v>
       </c>
@@ -4735,7 +4733,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="68" t="s">
         <v>121</v>
       </c>
@@ -4761,7 +4759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>123</v>
       </c>
@@ -4793,7 +4791,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>120</v>
       </c>
@@ -4825,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>38</v>
       </c>
@@ -4843,19 +4841,19 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C61" s="67"/>
       <c r="E61" s="66"/>
       <c r="H61" s="67"/>
       <c r="J61" s="66"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C62" s="67"/>
       <c r="E62" s="66"/>
       <c r="H62" s="67"/>
       <c r="J62" s="66"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="68" t="s">
         <v>122</v>
       </c>
@@ -4867,7 +4865,7 @@
       <c r="H63" s="67"/>
       <c r="J63" s="66"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>123</v>
       </c>
@@ -4899,7 +4897,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>120</v>
       </c>
@@ -4931,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>34</v>
       </c>
@@ -4963,7 +4961,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>35</v>
       </c>
@@ -4995,7 +4993,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>38</v>
       </c>
@@ -5041,19 +5039,19 @@
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
+    <col min="9" max="12" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="95" t="s">
         <v>64</v>
       </c>
@@ -5063,7 +5061,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>65</v>
       </c>
@@ -5071,7 +5069,7 @@
         <v>6.6499999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="60" t="s">
         <v>66</v>
       </c>
@@ -5085,12 +5083,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="61" t="s">
         <v>68</v>
       </c>
@@ -5105,7 +5103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="61" t="s">
         <v>69</v>
       </c>
@@ -5120,7 +5118,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="34" t="s">
         <v>70</v>
       </c>
@@ -5133,7 +5131,7 @@
         <v>4.4049999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>71</v>
       </c>
@@ -5151,7 +5149,7 @@
         <v>6.3469999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>72</v>
       </c>
@@ -5169,7 +5167,7 @@
         <v>3.9449999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="34" t="s">
         <v>73</v>
       </c>
@@ -5183,7 +5181,7 @@
         <v>6.6499999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>74</v>
       </c>
@@ -5201,7 +5199,7 @@
         <v>2.1000000000000001E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>75</v>
       </c>
@@ -5219,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>76</v>
       </c>
@@ -5231,7 +5229,7 @@
         <v>-0.13452</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>77</v>
       </c>
@@ -5246,7 +5244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="34" t="s">
         <v>78</v>
       </c>
@@ -5259,7 +5257,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>74</v>
       </c>
@@ -5277,7 +5275,7 @@
         <v>6.8790000000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>75</v>
       </c>
@@ -5295,7 +5293,7 @@
         <v>8.52E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>76</v>
       </c>
@@ -5313,7 +5311,7 @@
         <v>5.4229999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>77</v>
       </c>
@@ -5331,7 +5329,7 @@
         <v>1.792E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="34" t="s">
         <v>79</v>
       </c>
@@ -5344,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>80</v>
       </c>
@@ -5362,7 +5360,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>81</v>
       </c>
@@ -5374,14 +5372,14 @@
         <v>-4.9240000000000006E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C26" s="63"/>
       <c r="D26" s="51"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
@@ -5393,7 +5391,7 @@
         <v>-8.7849999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>84</v>
       </c>
@@ -5405,7 +5403,7 @@
         <v>-0.10504000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>85</v>
       </c>
@@ -5417,7 +5415,7 @@
         <v>-7.146000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>86</v>
       </c>
@@ -5429,14 +5427,14 @@
         <v>-5.7080000000000006E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="34" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="63"/>
       <c r="D31" s="51"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>88</v>
       </c>
@@ -5448,26 +5446,26 @@
         <v>-5.4760000000000003E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="63"/>
       <c r="D33" s="51"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="60" t="s">
         <v>89</v>
       </c>
       <c r="C34" s="63"/>
       <c r="D34" s="51"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="34" t="s">
         <v>90</v>
       </c>
       <c r="C35" s="63"/>
       <c r="D35" s="51"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
@@ -5479,7 +5477,7 @@
         <v>-8.1320000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>72</v>
       </c>
@@ -5491,14 +5489,14 @@
         <v>-5.96E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C38" s="63"/>
       <c r="D38" s="51"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
@@ -5510,7 +5508,7 @@
         <v>-6.3810000000000006E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
@@ -5522,7 +5520,7 @@
         <v>-4.7630000000000006E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
@@ -5534,7 +5532,7 @@
         <v>-5.1680000000000004E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
@@ -5546,14 +5544,14 @@
         <v>-5.1680000000000004E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="34" t="s">
         <v>79</v>
       </c>
       <c r="C43" s="63"/>
       <c r="D43" s="51"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>80</v>
       </c>
@@ -5565,7 +5563,7 @@
         <v>-0.17701</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>81</v>
       </c>
@@ -5577,14 +5575,14 @@
         <v>-4.9240000000000006E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="34" t="s">
         <v>92</v>
       </c>
       <c r="C46" s="63"/>
       <c r="D46" s="51"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>88</v>
       </c>
@@ -5596,14 +5594,14 @@
         <v>-8.5780000000000009E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="34" t="s">
         <v>93</v>
       </c>
       <c r="C48" s="63"/>
       <c r="D48" s="51"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>88</v>
       </c>
@@ -5615,14 +5613,14 @@
         <v>-7.9350000000000004E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="34" t="s">
         <v>94</v>
       </c>
       <c r="C50" s="63"/>
       <c r="D50" s="51"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>88</v>
       </c>
@@ -5634,14 +5632,14 @@
         <v>-7.2760000000000005E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="34" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="63"/>
       <c r="D52" s="51"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>96</v>
       </c>
@@ -5653,7 +5651,7 @@
         <v>-4.5649999999999996E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>25</v>
       </c>
@@ -5665,7 +5663,7 @@
         <v>-3.6749999999999998E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>97</v>
       </c>
@@ -5677,14 +5675,14 @@
         <v>-16.12</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="34" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="63"/>
       <c r="D56" s="51"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>88</v>
       </c>
@@ -5696,14 +5694,14 @@
         <v>-5.3239999999999996E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C58" s="62"/>
       <c r="D58" s="51"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>88</v>
       </c>
@@ -5715,33 +5713,33 @@
         <v>-6.1030000000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
       <c r="C60" s="63"/>
       <c r="D60" s="51"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="60" t="s">
         <v>99</v>
       </c>
       <c r="C61" s="63"/>
       <c r="D61" s="51"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="34" t="s">
         <v>100</v>
       </c>
       <c r="C62" s="63"/>
       <c r="D62" s="51"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C63" s="64"/>
       <c r="D63" s="51"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>102</v>
       </c>
@@ -5753,7 +5751,7 @@
         <v>-4.8130000000000006E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>103</v>
       </c>
@@ -5765,7 +5763,7 @@
         <v>-3.8129999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>104</v>
       </c>
@@ -5777,14 +5775,14 @@
         <v>-16.41</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C67" s="63"/>
       <c r="D67" s="51"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>102</v>
       </c>
@@ -5796,7 +5794,7 @@
         <v>-4.7530000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>103</v>
       </c>
@@ -5808,7 +5806,7 @@
         <v>-3.7530000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>104</v>
       </c>
@@ -5820,14 +5818,14 @@
         <v>-16.09</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C71" s="63"/>
       <c r="D71" s="51"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>102</v>
       </c>
@@ -5839,7 +5837,7 @@
         <v>-4.6789999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>103</v>
       </c>
@@ -5851,7 +5849,7 @@
         <v>-3.6790000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>104</v>
       </c>
@@ -5863,21 +5861,21 @@
         <v>-15.73</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="34" t="s">
         <v>107</v>
       </c>
       <c r="C75" s="63"/>
       <c r="D75" s="51"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C76" s="63"/>
       <c r="D76" s="51"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>102</v>
       </c>
@@ -5889,7 +5887,7 @@
         <v>-4.8170000000000004E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>103</v>
       </c>
@@ -5901,7 +5899,7 @@
         <v>-4.5170000000000002E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>104</v>
       </c>
@@ -5913,14 +5911,14 @@
         <v>-13.27</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C80" s="63"/>
       <c r="D80" s="51"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>102</v>
       </c>
@@ -5932,7 +5930,7 @@
         <v>-4.7469999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>103</v>
       </c>
@@ -5944,7 +5942,7 @@
         <v>-4.4469999999999996E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>104</v>
       </c>
@@ -5956,14 +5954,14 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C84" s="63"/>
       <c r="D84" s="51"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>102</v>
       </c>
@@ -5975,7 +5973,7 @@
         <v>-4.6619999999999995E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>103</v>
       </c>
@@ -5987,7 +5985,7 @@
         <v>-4.3620000000000006E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>104</v>
       </c>
@@ -5999,21 +5997,21 @@
         <v>-12.71</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="34" t="s">
         <v>108</v>
       </c>
       <c r="C88" s="63"/>
       <c r="D88" s="51"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C89" s="63"/>
       <c r="D89" s="51"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>102</v>
       </c>
@@ -6025,7 +6023,7 @@
         <v>-4.8130000000000006E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>103</v>
       </c>
@@ -6037,7 +6035,7 @@
         <v>-3.8129999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>104</v>
       </c>
@@ -6049,14 +6047,14 @@
         <v>-9.84</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C93" s="63"/>
       <c r="D93" s="51"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>102</v>
       </c>
@@ -6068,7 +6066,7 @@
         <v>-4.7530000000000003E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>103</v>
       </c>
@@ -6080,7 +6078,7 @@
         <v>-3.7530000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>104</v>
       </c>
@@ -6092,14 +6090,14 @@
         <v>-9.65</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C97" s="63"/>
       <c r="D97" s="51"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>102</v>
       </c>
@@ -6111,7 +6109,7 @@
         <v>-4.6789999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
         <v>103</v>
       </c>
@@ -6123,7 +6121,7 @@
         <v>-3.6790000000000003E-2</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
         <v>104</v>
       </c>
@@ -6135,14 +6133,14 @@
         <v>-9.44</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="34" t="s">
         <v>109</v>
       </c>
       <c r="C101" s="63"/>
       <c r="D101" s="51"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
         <v>110</v>
       </c>
@@ -6154,7 +6152,7 @@
         <v>-9.9540000000000003E-2</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>111</v>
       </c>
